--- a/natmiOut/OldD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H2">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I2">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J2">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N2">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q2">
-        <v>1.913975141810182</v>
+        <v>3.106303692130445</v>
       </c>
       <c r="R2">
-        <v>1.913975141810182</v>
+        <v>27.95673322917401</v>
       </c>
       <c r="S2">
-        <v>0.03619474215311386</v>
+        <v>0.04366491034258822</v>
       </c>
       <c r="T2">
-        <v>0.03619474215311386</v>
+        <v>0.04366491034258822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H3">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I3">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J3">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N3">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q3">
-        <v>21.09081809098815</v>
+        <v>31.87233177702</v>
       </c>
       <c r="R3">
-        <v>21.09081809098815</v>
+        <v>286.85098599318</v>
       </c>
       <c r="S3">
-        <v>0.3988435930675494</v>
+        <v>0.4480252568280955</v>
       </c>
       <c r="T3">
-        <v>0.3988435930675494</v>
+        <v>0.4480252568280955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H4">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I4">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J4">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N4">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q4">
-        <v>6.954756832317001</v>
+        <v>10.886977593049</v>
       </c>
       <c r="R4">
-        <v>6.954756832317001</v>
+        <v>97.982798337441</v>
       </c>
       <c r="S4">
-        <v>0.1315198012682892</v>
+        <v>0.1530368397998507</v>
       </c>
       <c r="T4">
-        <v>0.1315198012682892</v>
+        <v>0.1530368397998507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H5">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I5">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J5">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N5">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q5">
-        <v>1.000868569663729</v>
+        <v>1.133749259558222</v>
       </c>
       <c r="R5">
-        <v>1.000868569663729</v>
+        <v>10.203743336024</v>
       </c>
       <c r="S5">
-        <v>0.01892719451615911</v>
+        <v>0.01593696710820722</v>
       </c>
       <c r="T5">
-        <v>0.01892719451615911</v>
+        <v>0.01593696710820723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H6">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I6">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J6">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N6">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q6">
-        <v>11.02895041562598</v>
+        <v>11.63287177752</v>
       </c>
       <c r="R6">
-        <v>11.02895041562598</v>
+        <v>104.69584599768</v>
       </c>
       <c r="S6">
-        <v>0.2085659357809204</v>
+        <v>0.1635217781439333</v>
       </c>
       <c r="T6">
-        <v>0.2085659357809204</v>
+        <v>0.1635217781439334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H7">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I7">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J7">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N7">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q7">
-        <v>3.636827548625758</v>
+        <v>3.973566015524</v>
       </c>
       <c r="R7">
-        <v>3.636827548625758</v>
+        <v>35.762094139716</v>
       </c>
       <c r="S7">
-        <v>0.06877520637669036</v>
+        <v>0.05585590496118332</v>
       </c>
       <c r="T7">
-        <v>0.06877520637669036</v>
+        <v>0.05585590496118333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H8">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I8">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J8">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N8">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q8">
-        <v>0.4634064954181467</v>
+        <v>0.5779609651262223</v>
       </c>
       <c r="R8">
-        <v>0.4634064954181467</v>
+        <v>5.201648686136</v>
       </c>
       <c r="S8">
-        <v>0.008763373278649095</v>
+        <v>0.008124322740138724</v>
       </c>
       <c r="T8">
-        <v>0.008763373278649095</v>
+        <v>0.008124322740138724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H9">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I9">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J9">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N9">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q9">
-        <v>5.106451950991828</v>
+        <v>5.930187599279999</v>
       </c>
       <c r="R9">
-        <v>5.106451950991828</v>
+        <v>53.37168839352</v>
       </c>
       <c r="S9">
-        <v>0.09656693425423005</v>
+        <v>0.08335988219480757</v>
       </c>
       <c r="T9">
-        <v>0.09656693425423005</v>
+        <v>0.08335988219480757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H10">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I10">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J10">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N10">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q10">
-        <v>1.683866952995705</v>
+        <v>2.025638411636</v>
       </c>
       <c r="R10">
-        <v>1.683866952995705</v>
+        <v>18.230745704724</v>
       </c>
       <c r="S10">
-        <v>0.0318432193043986</v>
+        <v>0.02847413788119544</v>
       </c>
       <c r="T10">
-        <v>0.0318432193043986</v>
+        <v>0.02847413788119544</v>
       </c>
     </row>
   </sheetData>
